--- a/Agile_Template_v0.1.xlsx
+++ b/Agile_Template_v0.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manushree P M\Documents\Infosys Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manushree P M\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBEA210-F879-4966-8A92-D795D5929E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528831DF-1E02-4D1E-87D1-BF238BC7C558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>Planned Sprint</t>
   </si>
@@ -211,10 +211,13 @@
     <t>completed</t>
   </si>
   <si>
-    <t>Ganashree</t>
+    <t>Create presentation on the Project (ppt)</t>
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganashree </t>
   </si>
 </sst>
 </file>
@@ -648,9 +651,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1036,7 +1037,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1044,9 +1045,9 @@
     <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="64.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="61.2" x14ac:dyDescent="0.25">
@@ -1094,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>57</v>
@@ -1119,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I3" s="58">
-        <v>45919</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -1144,13 +1145,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I4" s="58">
-        <v>45926</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -1169,13 +1170,13 @@
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I5" s="58">
-        <v>45931</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -1194,13 +1195,13 @@
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I6" s="58">
-        <v>45917</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1219,13 +1220,13 @@
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I7" s="58">
-        <v>45934</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -1244,7 +1245,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>57</v>
@@ -1269,13 +1270,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I9" s="58">
-        <v>45941</v>
+        <v>45942</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -1294,13 +1295,13 @@
         <v>6</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I10" s="58">
-        <v>45944</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -1319,13 +1320,13 @@
         <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I11" s="58">
-        <v>45945</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -1344,13 +1345,13 @@
         <v>6</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I12" s="58">
-        <v>45948</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
@@ -1369,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>57</v>
@@ -1379,14 +1380,27 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="58">
+        <v>45960</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
